--- a/backend/dataset.xlsx
+++ b/backend/dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3764,6 +3764,60 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>tess</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>18+</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
